--- a/zszq_SQL/嘉扬/嘉扬系统二次开发.xlsx
+++ b/zszq_SQL/嘉扬/嘉扬系统二次开发.xlsx
@@ -31798,8 +31798,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:CM1579"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A983" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A1005" sqref="A1005"/>
+    <sheetView tabSelected="1" topLeftCell="B989" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F1002" sqref="F1002"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1"/>

--- a/zszq_SQL/嘉扬/嘉扬系统二次开发.xlsx
+++ b/zszq_SQL/嘉扬/嘉扬系统二次开发.xlsx
@@ -238,7 +238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16850" uniqueCount="5174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16895" uniqueCount="5176">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -20618,6 +20618,14 @@
   </si>
   <si>
     <t>pSP_pYear_ReportEvalSubmit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疫情统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pEpidemicSuitation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -31998,10 +32006,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:CM1602"/>
+  <dimension ref="A2:CM1608"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1587" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C1597" sqref="C1597"/>
+    <sheetView tabSelected="1" topLeftCell="A1470" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A1615" sqref="A1615"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -73276,12 +73284,12 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="1601" spans="1:3" s="46" customFormat="1" ht="16.5" outlineLevel="1">
+    <row r="1601" spans="1:15" s="46" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1601" s="44" t="s">
         <v>5151</v>
       </c>
     </row>
-    <row r="1602" spans="1:3" s="52" customFormat="1" ht="16.5" outlineLevel="1">
+    <row r="1602" spans="1:15" s="52" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1602" s="50" t="s">
         <v>5153</v>
       </c>
@@ -73290,6 +73298,153 @@
       </c>
       <c r="C1602" s="52" t="s">
         <v>1318</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:15" s="62" customFormat="1" ht="22.5">
+      <c r="A1604" s="61" t="s">
+        <v>5174</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:15" s="46" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A1605" s="44" t="s">
+        <v>5175</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:15" s="49" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A1606" s="47" t="s">
+        <v>5147</v>
+      </c>
+      <c r="B1606" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1606" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1606" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1606" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1606" s="49" t="s">
+        <v>5156</v>
+      </c>
+      <c r="G1606" s="49" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H1606" s="49" t="s">
+        <v>1180</v>
+      </c>
+      <c r="I1606" s="49" t="s">
+        <v>1181</v>
+      </c>
+      <c r="J1606" s="49" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K1606" s="49" t="s">
+        <v>1183</v>
+      </c>
+      <c r="L1606" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1606" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1606" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1606" s="49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:15" s="49" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A1607" s="47"/>
+      <c r="B1607" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1607" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1607" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1607" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1607" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1607" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1607" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1607" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1607" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1607" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1607" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1607" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="N1607" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1607" s="49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:15" s="52" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A1608" s="50"/>
+      <c r="B1608" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1608" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1608" s="52" t="s">
+        <v>5154</v>
+      </c>
+      <c r="E1608" s="52" t="s">
+        <v>5155</v>
+      </c>
+      <c r="F1608" s="52" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G1608" s="52" t="s">
+        <v>5157</v>
+      </c>
+      <c r="H1608" s="52" t="s">
+        <v>5168</v>
+      </c>
+      <c r="I1608" s="52" t="s">
+        <v>5167</v>
+      </c>
+      <c r="J1608" s="52" t="s">
+        <v>5166</v>
+      </c>
+      <c r="K1608" s="52" t="s">
+        <v>5165</v>
+      </c>
+      <c r="L1608" s="52" t="s">
+        <v>5158</v>
+      </c>
+      <c r="M1608" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="N1608" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="O1608" s="52" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/zszq_SQL/嘉扬/嘉扬系统二次开发.xlsx
+++ b/zszq_SQL/嘉扬/嘉扬系统二次开发.xlsx
@@ -13,7 +13,6 @@
     <sheet name="人员发展" sheetId="15" r:id="rId4"/>
     <sheet name="企业战略" sheetId="16" r:id="rId5"/>
     <sheet name="信息技术事业部" sheetId="18" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="19" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -238,7 +237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16944" uniqueCount="5220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16959" uniqueCount="5229">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -20493,18 +20492,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TMPExpense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pExpenseTMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>述职测评</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -20797,6 +20784,54 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pEpidemicSuitation_Dep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubmitStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填报状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递交人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApproverID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -21147,7 +21182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -21519,7 +21554,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="31" fontId="2" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -25755,7 +25789,7 @@
       </c>
     </row>
     <row r="115" spans="1:28" s="52" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A115" s="231"/>
+      <c r="A115" s="230"/>
       <c r="B115" s="51" t="s">
         <v>25</v>
       </c>
@@ -26002,7 +26036,7 @@
       </c>
     </row>
     <row r="119" spans="1:28" s="52" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A119" s="231"/>
+      <c r="A119" s="230"/>
       <c r="B119" s="51" t="s">
         <v>4846</v>
       </c>
@@ -26195,7 +26229,7 @@
       </c>
     </row>
     <row r="123" spans="1:28" s="52" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A123" s="231"/>
+      <c r="A123" s="230"/>
       <c r="B123" s="51" t="s">
         <v>47</v>
       </c>
@@ -32187,10 +32221,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:CM1614"/>
+  <dimension ref="A2:CM1618"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1515" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G1609" sqref="G1609"/>
+    <sheetView tabSelected="1" topLeftCell="A1571" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A1611" sqref="A1611"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -55874,7 +55908,7 @@
         <v>150</v>
       </c>
       <c r="I967" s="49" t="s">
-        <v>108</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="968" spans="1:10" s="52" customFormat="1" ht="16.5" outlineLevel="1">
@@ -61461,7 +61495,7 @@
       </c>
     </row>
     <row r="1143" spans="1:24" s="134" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
-      <c r="A1143" s="232"/>
+      <c r="A1143" s="231"/>
       <c r="B1143" s="133" t="s">
         <v>24</v>
       </c>
@@ -61497,7 +61531,7 @@
       </c>
     </row>
     <row r="1144" spans="1:24" s="136" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
-      <c r="A1144" s="233"/>
+      <c r="A1144" s="232"/>
       <c r="B1144" s="135" t="s">
         <v>25</v>
       </c>
@@ -61628,7 +61662,7 @@
       </c>
     </row>
     <row r="1149" spans="1:24" s="134" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
-      <c r="A1149" s="232"/>
+      <c r="A1149" s="231"/>
       <c r="B1149" s="133" t="s">
         <v>24</v>
       </c>
@@ -61700,7 +61734,7 @@
       </c>
     </row>
     <row r="1150" spans="1:24" s="136" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
-      <c r="A1150" s="233"/>
+      <c r="A1150" s="232"/>
       <c r="B1150" s="135" t="s">
         <v>25</v>
       </c>
@@ -61851,7 +61885,7 @@
       </c>
     </row>
     <row r="1153" spans="1:24" s="134" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
-      <c r="A1153" s="232"/>
+      <c r="A1153" s="231"/>
       <c r="B1153" s="133" t="s">
         <v>24</v>
       </c>
@@ -61923,7 +61957,7 @@
       </c>
     </row>
     <row r="1154" spans="1:24" s="136" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
-      <c r="A1154" s="233"/>
+      <c r="A1154" s="232"/>
       <c r="B1154" s="135" t="s">
         <v>25</v>
       </c>
@@ -62081,7 +62115,7 @@
       </c>
     </row>
     <row r="1161" spans="1:24" s="134" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
-      <c r="A1161" s="232"/>
+      <c r="A1161" s="231"/>
       <c r="B1161" s="133" t="s">
         <v>24</v>
       </c>
@@ -62138,7 +62172,7 @@
       </c>
     </row>
     <row r="1162" spans="1:24" s="136" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
-      <c r="A1162" s="233"/>
+      <c r="A1162" s="232"/>
       <c r="B1162" s="135" t="s">
         <v>25</v>
       </c>
@@ -62271,7 +62305,7 @@
       </c>
     </row>
     <row r="1165" spans="1:24" s="134" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
-      <c r="A1165" s="232"/>
+      <c r="A1165" s="231"/>
       <c r="B1165" s="133" t="s">
         <v>24</v>
       </c>
@@ -62340,7 +62374,7 @@
       </c>
     </row>
     <row r="1166" spans="1:24" s="136" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
-      <c r="A1166" s="233"/>
+      <c r="A1166" s="232"/>
       <c r="B1166" s="135" t="s">
         <v>25</v>
       </c>
@@ -62473,7 +62507,7 @@
       </c>
     </row>
     <row r="1169" spans="1:22" s="134" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
-      <c r="A1169" s="232"/>
+      <c r="A1169" s="231"/>
       <c r="B1169" s="133" t="s">
         <v>24</v>
       </c>
@@ -62530,7 +62564,7 @@
       </c>
     </row>
     <row r="1170" spans="1:22" s="136" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
-      <c r="A1170" s="233"/>
+      <c r="A1170" s="232"/>
       <c r="B1170" s="135" t="s">
         <v>25</v>
       </c>
@@ -62660,7 +62694,7 @@
       </c>
     </row>
     <row r="1173" spans="1:22" s="134" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
-      <c r="A1173" s="232"/>
+      <c r="A1173" s="231"/>
       <c r="B1173" s="133" t="s">
         <v>24</v>
       </c>
@@ -62726,7 +62760,7 @@
       </c>
     </row>
     <row r="1174" spans="1:22" s="136" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
-      <c r="A1174" s="233"/>
+      <c r="A1174" s="232"/>
       <c r="B1174" s="135" t="s">
         <v>25</v>
       </c>
@@ -64992,7 +65026,7 @@
       </c>
     </row>
     <row r="1239" spans="1:28" s="134" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
-      <c r="A1239" s="232"/>
+      <c r="A1239" s="231"/>
       <c r="B1239" s="133" t="s">
         <v>24</v>
       </c>
@@ -65046,7 +65080,7 @@
       </c>
     </row>
     <row r="1240" spans="1:28" s="136" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
-      <c r="A1240" s="233"/>
+      <c r="A1240" s="232"/>
       <c r="B1240" s="135" t="s">
         <v>25</v>
       </c>
@@ -65149,7 +65183,7 @@
       </c>
     </row>
     <row r="1243" spans="1:28" s="134" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
-      <c r="A1243" s="232"/>
+      <c r="A1243" s="231"/>
       <c r="B1243" s="133" t="s">
         <v>24</v>
       </c>
@@ -65191,7 +65225,7 @@
       </c>
     </row>
     <row r="1244" spans="1:28" s="136" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
-      <c r="A1244" s="233"/>
+      <c r="A1244" s="232"/>
       <c r="B1244" s="135" t="s">
         <v>25</v>
       </c>
@@ -65324,7 +65358,7 @@
       </c>
     </row>
     <row r="1247" spans="1:28" s="134" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
-      <c r="A1247" s="232"/>
+      <c r="A1247" s="231"/>
       <c r="B1247" s="133" t="s">
         <v>24</v>
       </c>
@@ -65408,7 +65442,7 @@
       </c>
     </row>
     <row r="1248" spans="1:28" s="136" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
-      <c r="A1248" s="233"/>
+      <c r="A1248" s="232"/>
       <c r="B1248" s="135" t="s">
         <v>25</v>
       </c>
@@ -65559,7 +65593,7 @@
       </c>
     </row>
     <row r="1253" spans="1:16" s="134" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
-      <c r="A1253" s="232"/>
+      <c r="A1253" s="231"/>
       <c r="B1253" s="133" t="s">
         <v>24</v>
       </c>
@@ -65607,7 +65641,7 @@
       </c>
     </row>
     <row r="1254" spans="1:16" s="136" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
-      <c r="A1254" s="233"/>
+      <c r="A1254" s="232"/>
       <c r="B1254" s="135" t="s">
         <v>25</v>
       </c>
@@ -66542,7 +66576,7 @@
       </c>
     </row>
     <row r="1309" spans="1:28" s="134" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
-      <c r="A1309" s="232"/>
+      <c r="A1309" s="231"/>
       <c r="B1309" s="133" t="s">
         <v>24</v>
       </c>
@@ -66626,7 +66660,7 @@
       </c>
     </row>
     <row r="1310" spans="1:28" s="136" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
-      <c r="A1310" s="233"/>
+      <c r="A1310" s="232"/>
       <c r="B1310" s="135" t="s">
         <v>25</v>
       </c>
@@ -66765,7 +66799,7 @@
       </c>
     </row>
     <row r="1313" spans="1:16" s="134" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
-      <c r="A1313" s="232"/>
+      <c r="A1313" s="231"/>
       <c r="B1313" s="133" t="s">
         <v>24</v>
       </c>
@@ -66813,7 +66847,7 @@
       </c>
     </row>
     <row r="1314" spans="1:16" s="136" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
-      <c r="A1314" s="233"/>
+      <c r="A1314" s="232"/>
       <c r="B1314" s="135" t="s">
         <v>25</v>
       </c>
@@ -66916,7 +66950,7 @@
       </c>
     </row>
     <row r="1319" spans="1:16" s="134" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
-      <c r="A1319" s="232"/>
+      <c r="A1319" s="231"/>
       <c r="B1319" s="133" t="s">
         <v>24</v>
       </c>
@@ -66958,7 +66992,7 @@
       </c>
     </row>
     <row r="1320" spans="1:16" s="136" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
-      <c r="A1320" s="233"/>
+      <c r="A1320" s="232"/>
       <c r="B1320" s="135" t="s">
         <v>25</v>
       </c>
@@ -73227,17 +73261,17 @@
     <row r="1587" spans="1:15" collapsed="1"/>
     <row r="1588" spans="1:15" s="62" customFormat="1" ht="22.5">
       <c r="A1588" s="61" t="s">
-        <v>5145</v>
+        <v>5142</v>
       </c>
     </row>
     <row r="1589" spans="1:15" s="46" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1589" s="44" t="s">
-        <v>5146</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="1590" spans="1:15" s="49" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1590" s="47" t="s">
-        <v>5147</v>
+        <v>5144</v>
       </c>
       <c r="B1590" s="48" t="s">
         <v>2</v>
@@ -73252,7 +73286,7 @@
         <v>44</v>
       </c>
       <c r="F1590" s="49" t="s">
-        <v>5156</v>
+        <v>5153</v>
       </c>
       <c r="G1590" s="49" t="s">
         <v>2155</v>
@@ -73261,25 +73295,25 @@
         <v>1180</v>
       </c>
       <c r="I1590" s="49" t="s">
-        <v>5171</v>
+        <v>5168</v>
       </c>
       <c r="J1590" s="49" t="s">
         <v>1182</v>
       </c>
       <c r="K1590" s="49" t="s">
-        <v>5172</v>
+        <v>5169</v>
       </c>
       <c r="L1590" s="49" t="s">
         <v>12</v>
       </c>
       <c r="M1590" s="49" t="s">
-        <v>5159</v>
+        <v>5156</v>
       </c>
       <c r="N1590" s="49" t="s">
-        <v>5160</v>
+        <v>5157</v>
       </c>
       <c r="O1590" s="49" t="s">
-        <v>5161</v>
+        <v>5158</v>
       </c>
     </row>
     <row r="1591" spans="1:15" s="49" customFormat="1" ht="16.5" outlineLevel="1">
@@ -73336,50 +73370,50 @@
         <v>79</v>
       </c>
       <c r="D1592" s="52" t="s">
-        <v>5154</v>
+        <v>5151</v>
       </c>
       <c r="E1592" s="52" t="s">
-        <v>5155</v>
+        <v>5152</v>
       </c>
       <c r="F1592" s="52" t="s">
         <v>4651</v>
       </c>
       <c r="G1592" s="52" t="s">
-        <v>5157</v>
+        <v>5154</v>
       </c>
       <c r="H1592" s="52" t="s">
-        <v>5168</v>
+        <v>5165</v>
       </c>
       <c r="I1592" s="52" t="s">
-        <v>5167</v>
+        <v>5164</v>
       </c>
       <c r="J1592" s="52" t="s">
-        <v>5166</v>
+        <v>5163</v>
       </c>
       <c r="K1592" s="52" t="s">
-        <v>5165</v>
+        <v>5162</v>
       </c>
       <c r="L1592" s="52" t="s">
-        <v>5158</v>
+        <v>5155</v>
       </c>
       <c r="M1592" s="52" t="s">
-        <v>5164</v>
+        <v>5161</v>
       </c>
       <c r="N1592" s="52" t="s">
-        <v>5163</v>
+        <v>5160</v>
       </c>
       <c r="O1592" s="52" t="s">
-        <v>5162</v>
+        <v>5159</v>
       </c>
     </row>
     <row r="1593" spans="1:15" s="46" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1593" s="44" t="s">
-        <v>5148</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="1594" spans="1:15" s="49" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1594" s="47" t="s">
-        <v>5149</v>
+        <v>5146</v>
       </c>
       <c r="B1594" s="48" t="s">
         <v>2</v>
@@ -73394,7 +73428,7 @@
         <v>44</v>
       </c>
       <c r="F1594" s="49" t="s">
-        <v>5169</v>
+        <v>5166</v>
       </c>
     </row>
     <row r="1595" spans="1:15" s="49" customFormat="1" ht="16.5" outlineLevel="1">
@@ -73424,23 +73458,23 @@
         <v>1047</v>
       </c>
       <c r="D1596" s="52" t="s">
-        <v>5154</v>
+        <v>5151</v>
       </c>
       <c r="E1596" s="52" t="s">
-        <v>5155</v>
+        <v>5152</v>
       </c>
       <c r="F1596" s="52" t="s">
-        <v>5170</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="1597" spans="1:15" s="46" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1597" s="44" t="s">
-        <v>5173</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="1598" spans="1:15" s="52" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1598" s="50" t="s">
-        <v>5152</v>
+        <v>5149</v>
       </c>
       <c r="B1598" s="51" t="s">
         <v>112</v>
@@ -73451,12 +73485,12 @@
     </row>
     <row r="1599" spans="1:15" s="46" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1599" s="44" t="s">
-        <v>5150</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="1600" spans="1:15" s="52" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1600" s="50" t="s">
-        <v>5152</v>
+        <v>5149</v>
       </c>
       <c r="B1600" s="51" t="s">
         <v>112</v>
@@ -73467,12 +73501,12 @@
     </row>
     <row r="1601" spans="1:20" s="46" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1601" s="44" t="s">
-        <v>5151</v>
+        <v>5148</v>
       </c>
     </row>
     <row r="1602" spans="1:20" s="52" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1602" s="50" t="s">
-        <v>5153</v>
+        <v>5150</v>
       </c>
       <c r="B1602" s="51" t="s">
         <v>112</v>
@@ -73483,17 +73517,17 @@
     </row>
     <row r="1604" spans="1:20" s="62" customFormat="1" ht="22.5">
       <c r="A1604" s="61" t="s">
-        <v>5174</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="1605" spans="1:20" s="46" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1605" s="44" t="s">
-        <v>5191</v>
+        <v>5188</v>
       </c>
     </row>
     <row r="1606" spans="1:20" s="49" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1606" s="47" t="s">
-        <v>5175</v>
+        <v>5172</v>
       </c>
       <c r="B1606" s="48" t="s">
         <v>2</v>
@@ -73502,19 +73536,19 @@
         <v>3</v>
       </c>
       <c r="D1606" s="49" t="s">
-        <v>5176</v>
+        <v>5173</v>
       </c>
       <c r="E1606" s="49" t="s">
+        <v>5174</v>
+      </c>
+      <c r="F1606" s="49" t="s">
+        <v>5210</v>
+      </c>
+      <c r="G1606" s="49" t="s">
+        <v>5214</v>
+      </c>
+      <c r="H1606" s="49" t="s">
         <v>5177</v>
-      </c>
-      <c r="F1606" s="49" t="s">
-        <v>5213</v>
-      </c>
-      <c r="G1606" s="49" t="s">
-        <v>5217</v>
-      </c>
-      <c r="H1606" s="49" t="s">
-        <v>5180</v>
       </c>
       <c r="I1606" s="49" t="s">
         <v>500</v>
@@ -73523,34 +73557,34 @@
         <v>501</v>
       </c>
       <c r="K1606" s="49" t="s">
-        <v>5192</v>
+        <v>5189</v>
       </c>
       <c r="L1606" s="49" t="s">
-        <v>5197</v>
+        <v>5194</v>
       </c>
       <c r="M1606" s="49" t="s">
-        <v>5196</v>
+        <v>5193</v>
       </c>
       <c r="N1606" s="49" t="s">
-        <v>5202</v>
+        <v>5199</v>
       </c>
       <c r="O1606" s="49" t="s">
-        <v>5203</v>
+        <v>5200</v>
       </c>
       <c r="P1606" s="49" t="s">
+        <v>5201</v>
+      </c>
+      <c r="Q1606" s="49" t="s">
         <v>5204</v>
       </c>
-      <c r="Q1606" s="49" t="s">
+      <c r="R1606" s="49" t="s">
+        <v>5205</v>
+      </c>
+      <c r="S1606" s="49" t="s">
+        <v>5206</v>
+      </c>
+      <c r="T1606" s="49" t="s">
         <v>5207</v>
-      </c>
-      <c r="R1606" s="49" t="s">
-        <v>5208</v>
-      </c>
-      <c r="S1606" s="49" t="s">
-        <v>5209</v>
-      </c>
-      <c r="T1606" s="49" t="s">
-        <v>5210</v>
       </c>
     </row>
     <row r="1607" spans="1:20" s="49" customFormat="1" ht="16.5" outlineLevel="1">
@@ -73568,10 +73602,10 @@
         <v>82</v>
       </c>
       <c r="F1607" s="49" t="s">
-        <v>5216</v>
+        <v>5213</v>
       </c>
       <c r="G1607" s="49" t="s">
-        <v>5218</v>
+        <v>5215</v>
       </c>
       <c r="H1607" s="49" t="s">
         <v>82</v>
@@ -73583,31 +73617,31 @@
         <v>82</v>
       </c>
       <c r="K1607" s="49" t="s">
-        <v>5193</v>
+        <v>5190</v>
       </c>
       <c r="L1607" s="49" t="s">
-        <v>5198</v>
+        <v>5195</v>
       </c>
       <c r="M1607" s="49" t="s">
-        <v>5193</v>
+        <v>5190</v>
       </c>
       <c r="N1607" s="49" t="s">
-        <v>5205</v>
+        <v>5202</v>
       </c>
       <c r="O1607" s="49" t="s">
-        <v>5193</v>
+        <v>5190</v>
       </c>
       <c r="P1607" s="49" t="s">
-        <v>5206</v>
+        <v>5203</v>
       </c>
       <c r="Q1607" s="49" t="s">
-        <v>5205</v>
+        <v>5202</v>
       </c>
       <c r="R1607" s="49" t="s">
-        <v>5193</v>
+        <v>5190</v>
       </c>
       <c r="S1607" s="49" t="s">
-        <v>5206</v>
+        <v>5203</v>
       </c>
     </row>
     <row r="1608" spans="1:20" s="52" customFormat="1" ht="16.5" outlineLevel="1">
@@ -73619,19 +73653,19 @@
         <v>79</v>
       </c>
       <c r="D1608" s="52" t="s">
+        <v>5175</v>
+      </c>
+      <c r="E1608" s="52" t="s">
+        <v>5176</v>
+      </c>
+      <c r="F1608" s="52" t="s">
+        <v>5211</v>
+      </c>
+      <c r="G1608" s="52" t="s">
+        <v>5216</v>
+      </c>
+      <c r="H1608" s="52" t="s">
         <v>5178</v>
-      </c>
-      <c r="E1608" s="52" t="s">
-        <v>5179</v>
-      </c>
-      <c r="F1608" s="52" t="s">
-        <v>5214</v>
-      </c>
-      <c r="G1608" s="52" t="s">
-        <v>5219</v>
-      </c>
-      <c r="H1608" s="52" t="s">
-        <v>5181</v>
       </c>
       <c r="I1608" s="52" t="s">
         <v>478</v>
@@ -73640,79 +73674,70 @@
         <v>479</v>
       </c>
       <c r="K1608" s="52" t="s">
-        <v>5194</v>
+        <v>5191</v>
       </c>
       <c r="L1608" s="52" t="s">
-        <v>5199</v>
-      </c>
-      <c r="M1608" s="230" t="s">
-        <v>5200</v>
-      </c>
-      <c r="N1608" s="230"/>
-      <c r="O1608" s="230"/>
-      <c r="P1608" s="230"/>
-      <c r="Q1608" s="230"/>
+        <v>5196</v>
+      </c>
+      <c r="M1608" s="229" t="s">
+        <v>5197</v>
+      </c>
+      <c r="N1608" s="229"/>
+      <c r="O1608" s="229"/>
+      <c r="P1608" s="229"/>
+      <c r="Q1608" s="229"/>
     </row>
     <row r="1609" spans="1:20" s="46" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1609" s="44" t="s">
-        <v>5212</v>
+        <v>5209</v>
       </c>
     </row>
     <row r="1610" spans="1:20" s="52" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1610" s="50" t="s">
-        <v>5211</v>
+        <v>5208</v>
       </c>
       <c r="B1610" s="51" t="s">
         <v>112</v>
       </c>
       <c r="C1610" s="52" t="s">
-        <v>5201</v>
+        <v>5198</v>
       </c>
     </row>
     <row r="1611" spans="1:20" s="46" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1611" s="44" t="s">
-        <v>5195</v>
+        <v>5217</v>
       </c>
     </row>
     <row r="1612" spans="1:20" s="49" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1612" s="47" t="s">
-        <v>5175</v>
+        <v>5171</v>
       </c>
       <c r="B1612" s="48" t="s">
         <v>2</v>
       </c>
       <c r="C1612" s="49" t="s">
-        <v>5176</v>
+        <v>3</v>
       </c>
       <c r="D1612" s="49" t="s">
-        <v>5177</v>
+        <v>5227</v>
       </c>
       <c r="E1612" s="49" t="s">
-        <v>5213</v>
+        <v>453</v>
       </c>
       <c r="F1612" s="49" t="s">
-        <v>5180</v>
+        <v>500</v>
       </c>
       <c r="G1612" s="49" t="s">
-        <v>5192</v>
+        <v>501</v>
       </c>
       <c r="H1612" s="49" t="s">
-        <v>5182</v>
+        <v>5226</v>
       </c>
       <c r="I1612" s="49" t="s">
-        <v>5183</v>
+        <v>5218</v>
       </c>
       <c r="J1612" s="49" t="s">
-        <v>5184</v>
-      </c>
-      <c r="K1612" s="49" t="s">
-        <v>5185</v>
-      </c>
-      <c r="L1612" s="49" t="s">
-        <v>5186</v>
-      </c>
-      <c r="M1612" s="49" t="s">
-        <v>5187</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="1613" spans="1:20" s="49" customFormat="1" ht="16.5" outlineLevel="1">
@@ -73724,34 +73749,25 @@
         <v>82</v>
       </c>
       <c r="D1613" s="49" t="s">
-        <v>82</v>
+        <v>5224</v>
       </c>
       <c r="E1613" s="49" t="s">
-        <v>5216</v>
+        <v>82</v>
       </c>
       <c r="F1613" s="49" t="s">
-        <v>82</v>
+        <v>449</v>
       </c>
       <c r="G1613" s="49" t="s">
-        <v>5193</v>
+        <v>82</v>
       </c>
       <c r="H1613" s="49" t="s">
-        <v>5188</v>
+        <v>5224</v>
       </c>
       <c r="I1613" s="49" t="s">
-        <v>5188</v>
+        <v>449</v>
       </c>
       <c r="J1613" s="49" t="s">
-        <v>5188</v>
-      </c>
-      <c r="K1613" s="49" t="s">
-        <v>5188</v>
-      </c>
-      <c r="L1613" s="49" t="s">
-        <v>5188</v>
-      </c>
-      <c r="M1613" s="49" t="s">
-        <v>5189</v>
+        <v>5223</v>
       </c>
     </row>
     <row r="1614" spans="1:20" s="52" customFormat="1" ht="16.5" outlineLevel="1">
@@ -73760,37 +73776,156 @@
         <v>25</v>
       </c>
       <c r="C1614" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1614" s="52" t="s">
+        <v>5228</v>
+      </c>
+      <c r="E1614" s="52" t="s">
+        <v>5221</v>
+      </c>
+      <c r="F1614" s="52" t="s">
+        <v>478</v>
+      </c>
+      <c r="G1614" s="52" t="s">
+        <v>479</v>
+      </c>
+      <c r="H1614" s="52" t="s">
+        <v>5225</v>
+      </c>
+      <c r="I1614" s="52" t="s">
+        <v>5219</v>
+      </c>
+      <c r="J1614" s="229" t="s">
+        <v>5222</v>
+      </c>
+      <c r="K1614" s="229"/>
+      <c r="L1614" s="229"/>
+      <c r="M1614" s="229"/>
+      <c r="N1614" s="229"/>
+    </row>
+    <row r="1615" spans="1:20" s="46" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A1615" s="44" t="s">
+        <v>5192</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:20" s="49" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A1616" s="47" t="s">
+        <v>5172</v>
+      </c>
+      <c r="B1616" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1616" s="49" t="s">
+        <v>5173</v>
+      </c>
+      <c r="D1616" s="49" t="s">
+        <v>5174</v>
+      </c>
+      <c r="E1616" s="49" t="s">
+        <v>5210</v>
+      </c>
+      <c r="F1616" s="49" t="s">
+        <v>5177</v>
+      </c>
+      <c r="G1616" s="49" t="s">
+        <v>5189</v>
+      </c>
+      <c r="H1616" s="49" t="s">
+        <v>5179</v>
+      </c>
+      <c r="I1616" s="49" t="s">
+        <v>5180</v>
+      </c>
+      <c r="J1616" s="49" t="s">
+        <v>5181</v>
+      </c>
+      <c r="K1616" s="49" t="s">
+        <v>5182</v>
+      </c>
+      <c r="L1616" s="49" t="s">
+        <v>5183</v>
+      </c>
+      <c r="M1616" s="49" t="s">
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:13" s="49" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A1617" s="47"/>
+      <c r="B1617" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1617" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1617" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1617" s="49" t="s">
+        <v>5213</v>
+      </c>
+      <c r="F1617" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1617" s="49" t="s">
+        <v>5190</v>
+      </c>
+      <c r="H1617" s="49" t="s">
+        <v>5185</v>
+      </c>
+      <c r="I1617" s="49" t="s">
+        <v>5185</v>
+      </c>
+      <c r="J1617" s="49" t="s">
+        <v>5185</v>
+      </c>
+      <c r="K1617" s="49" t="s">
+        <v>5185</v>
+      </c>
+      <c r="L1617" s="49" t="s">
+        <v>5185</v>
+      </c>
+      <c r="M1617" s="49" t="s">
+        <v>5186</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:13" s="52" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A1618" s="50"/>
+      <c r="B1618" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1618" s="52" t="s">
+        <v>5175</v>
+      </c>
+      <c r="D1618" s="52" t="s">
+        <v>5176</v>
+      </c>
+      <c r="E1618" s="52" t="s">
+        <v>5211</v>
+      </c>
+      <c r="F1618" s="52" t="s">
         <v>5178</v>
       </c>
-      <c r="D1614" s="52" t="s">
-        <v>5179</v>
-      </c>
-      <c r="E1614" s="52" t="s">
-        <v>5214</v>
-      </c>
-      <c r="F1614" s="52" t="s">
-        <v>5181</v>
-      </c>
-      <c r="G1614" s="52" t="s">
-        <v>5194</v>
-      </c>
-      <c r="H1614" s="230" t="s">
-        <v>5200</v>
-      </c>
-      <c r="I1614" s="230" t="s">
-        <v>5200</v>
-      </c>
-      <c r="J1614" s="230" t="s">
-        <v>5200</v>
-      </c>
-      <c r="K1614" s="230" t="s">
-        <v>5200</v>
-      </c>
-      <c r="L1614" s="230" t="s">
-        <v>5200</v>
-      </c>
-      <c r="M1614" s="52" t="s">
-        <v>5190</v>
+      <c r="G1618" s="52" t="s">
+        <v>5191</v>
+      </c>
+      <c r="H1618" s="229" t="s">
+        <v>5197</v>
+      </c>
+      <c r="I1618" s="229" t="s">
+        <v>5197</v>
+      </c>
+      <c r="J1618" s="229" t="s">
+        <v>5197</v>
+      </c>
+      <c r="K1618" s="229" t="s">
+        <v>5197</v>
+      </c>
+      <c r="L1618" s="229" t="s">
+        <v>5197</v>
+      </c>
+      <c r="M1618" s="52" t="s">
+        <v>5187</v>
       </c>
     </row>
   </sheetData>
@@ -74331,10 +74466,10 @@
       <c r="B20" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="234" t="s">
+      <c r="C20" s="233" t="s">
         <v>1530</v>
       </c>
-      <c r="D20" s="234"/>
+      <c r="D20" s="233"/>
     </row>
     <row r="21" spans="1:10" s="32" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A21" s="41" t="s">
@@ -74517,13 +74652,13 @@
       <c r="B32" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="234" t="s">
+      <c r="C32" s="233" t="s">
         <v>1539</v>
       </c>
-      <c r="D32" s="234"/>
-      <c r="E32" s="234"/>
-      <c r="F32" s="234"/>
-      <c r="G32" s="234"/>
+      <c r="D32" s="233"/>
+      <c r="E32" s="233"/>
+      <c r="F32" s="233"/>
+      <c r="G32" s="233"/>
     </row>
     <row r="33" spans="1:18" s="34" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A33" s="38" t="s">
@@ -74826,10 +74961,10 @@
       <c r="B46" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="235" t="s">
+      <c r="C46" s="234" t="s">
         <v>2250</v>
       </c>
-      <c r="D46" s="235"/>
+      <c r="D46" s="234"/>
     </row>
     <row r="47" spans="1:18" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A47" s="9" t="s">
@@ -74844,10 +74979,10 @@
       <c r="B48" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C48" s="235" t="s">
+      <c r="C48" s="234" t="s">
         <v>2020</v>
       </c>
-      <c r="D48" s="235"/>
+      <c r="D48" s="234"/>
     </row>
     <row r="49" spans="1:17" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A49" s="109" t="s">
@@ -75232,7 +75367,7 @@
         <v>305</v>
       </c>
       <c r="E67" s="113" t="s">
-        <v>5215</v>
+        <v>5212</v>
       </c>
       <c r="F67" s="113" t="s">
         <v>2263</v>
@@ -80680,107 +80815,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK4"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="25" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:37" s="46" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A1" s="44" t="s">
-        <v>5144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" s="49" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A2" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>5142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" s="49" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" s="52" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E4" s="229" t="s">
-        <v>5143</v>
-      </c>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="49"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/zszq_SQL/嘉扬/嘉扬系统二次开发.xlsx
+++ b/zszq_SQL/嘉扬/嘉扬系统二次开发.xlsx
@@ -237,7 +237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16959" uniqueCount="5229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16968" uniqueCount="5237">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -20795,10 +20795,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SubmitStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>填报状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -20836,6 +20832,42 @@
   </si>
   <si>
     <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填报类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CertNoR6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件编号右6位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DepEMPCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门在编人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubmitType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -32224,7 +32256,7 @@
   <dimension ref="A2:CM1618"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1571" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A1611" sqref="A1611"/>
+      <selection activeCell="C1616" sqref="C1616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -73499,12 +73531,12 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="1601" spans="1:20" s="46" customFormat="1" ht="16.5" outlineLevel="1">
+    <row r="1601" spans="1:22" s="46" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1601" s="44" t="s">
         <v>5148</v>
       </c>
     </row>
-    <row r="1602" spans="1:20" s="52" customFormat="1" ht="16.5" outlineLevel="1">
+    <row r="1602" spans="1:22" s="52" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1602" s="50" t="s">
         <v>5150</v>
       </c>
@@ -73515,17 +73547,17 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="1604" spans="1:20" s="62" customFormat="1" ht="22.5">
+    <row r="1604" spans="1:22" s="62" customFormat="1" ht="22.5">
       <c r="A1604" s="61" t="s">
         <v>5171</v>
       </c>
     </row>
-    <row r="1605" spans="1:20" s="46" customFormat="1" ht="16.5" outlineLevel="1">
+    <row r="1605" spans="1:22" s="46" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1605" s="44" t="s">
         <v>5188</v>
       </c>
     </row>
-    <row r="1606" spans="1:20" s="49" customFormat="1" ht="16.5" outlineLevel="1">
+    <row r="1606" spans="1:22" s="49" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1606" s="47" t="s">
         <v>5172</v>
       </c>
@@ -73545,49 +73577,55 @@
         <v>5210</v>
       </c>
       <c r="G1606" s="49" t="s">
+        <v>5228</v>
+      </c>
+      <c r="H1606" s="49" t="s">
+        <v>5231</v>
+      </c>
+      <c r="I1606" s="49" t="s">
         <v>5214</v>
       </c>
-      <c r="H1606" s="49" t="s">
+      <c r="J1606" s="49" t="s">
         <v>5177</v>
       </c>
-      <c r="I1606" s="49" t="s">
+      <c r="K1606" s="49" t="s">
         <v>500</v>
       </c>
-      <c r="J1606" s="49" t="s">
+      <c r="L1606" s="49" t="s">
         <v>501</v>
       </c>
-      <c r="K1606" s="49" t="s">
+      <c r="M1606" s="49" t="s">
         <v>5189</v>
       </c>
-      <c r="L1606" s="49" t="s">
+      <c r="N1606" s="49" t="s">
         <v>5194</v>
       </c>
-      <c r="M1606" s="49" t="s">
+      <c r="O1606" s="49" t="s">
         <v>5193</v>
       </c>
-      <c r="N1606" s="49" t="s">
+      <c r="P1606" s="49" t="s">
         <v>5199</v>
       </c>
-      <c r="O1606" s="49" t="s">
+      <c r="Q1606" s="49" t="s">
         <v>5200</v>
       </c>
-      <c r="P1606" s="49" t="s">
+      <c r="R1606" s="49" t="s">
         <v>5201</v>
       </c>
-      <c r="Q1606" s="49" t="s">
+      <c r="S1606" s="49" t="s">
         <v>5204</v>
       </c>
-      <c r="R1606" s="49" t="s">
+      <c r="T1606" s="49" t="s">
         <v>5205</v>
       </c>
-      <c r="S1606" s="49" t="s">
+      <c r="U1606" s="49" t="s">
         <v>5206</v>
       </c>
-      <c r="T1606" s="49" t="s">
+      <c r="V1606" s="49" t="s">
         <v>5207</v>
       </c>
     </row>
-    <row r="1607" spans="1:20" s="49" customFormat="1" ht="16.5" outlineLevel="1">
+    <row r="1607" spans="1:22" s="49" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1607" s="47"/>
       <c r="B1607" s="48" t="s">
         <v>24</v>
@@ -73605,46 +73643,52 @@
         <v>5213</v>
       </c>
       <c r="G1607" s="49" t="s">
+        <v>5229</v>
+      </c>
+      <c r="H1607" s="49" t="s">
+        <v>5232</v>
+      </c>
+      <c r="I1607" s="49" t="s">
         <v>5215</v>
       </c>
-      <c r="H1607" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1607" s="49" t="s">
-        <v>82</v>
-      </c>
       <c r="J1607" s="49" t="s">
         <v>82</v>
       </c>
       <c r="K1607" s="49" t="s">
-        <v>5190</v>
+        <v>82</v>
       </c>
       <c r="L1607" s="49" t="s">
-        <v>5195</v>
+        <v>82</v>
       </c>
       <c r="M1607" s="49" t="s">
         <v>5190</v>
       </c>
       <c r="N1607" s="49" t="s">
-        <v>5202</v>
+        <v>5195</v>
       </c>
       <c r="O1607" s="49" t="s">
         <v>5190</v>
       </c>
       <c r="P1607" s="49" t="s">
+        <v>5202</v>
+      </c>
+      <c r="Q1607" s="49" t="s">
+        <v>5190</v>
+      </c>
+      <c r="R1607" s="49" t="s">
         <v>5203</v>
       </c>
-      <c r="Q1607" s="49" t="s">
+      <c r="S1607" s="49" t="s">
         <v>5202</v>
       </c>
-      <c r="R1607" s="49" t="s">
+      <c r="T1607" s="49" t="s">
         <v>5190</v>
       </c>
-      <c r="S1607" s="49" t="s">
+      <c r="U1607" s="49" t="s">
         <v>5203</v>
       </c>
     </row>
-    <row r="1608" spans="1:20" s="52" customFormat="1" ht="16.5" outlineLevel="1">
+    <row r="1608" spans="1:22" s="52" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1608" s="50"/>
       <c r="B1608" s="51" t="s">
         <v>25</v>
@@ -73662,37 +73706,43 @@
         <v>5211</v>
       </c>
       <c r="G1608" s="52" t="s">
+        <v>5230</v>
+      </c>
+      <c r="H1608" s="52" t="s">
+        <v>5233</v>
+      </c>
+      <c r="I1608" s="52" t="s">
         <v>5216</v>
       </c>
-      <c r="H1608" s="52" t="s">
+      <c r="J1608" s="52" t="s">
         <v>5178</v>
       </c>
-      <c r="I1608" s="52" t="s">
+      <c r="K1608" s="52" t="s">
         <v>478</v>
       </c>
-      <c r="J1608" s="52" t="s">
+      <c r="L1608" s="52" t="s">
         <v>479</v>
       </c>
-      <c r="K1608" s="52" t="s">
+      <c r="M1608" s="52" t="s">
         <v>5191</v>
       </c>
-      <c r="L1608" s="52" t="s">
+      <c r="N1608" s="52" t="s">
         <v>5196</v>
       </c>
-      <c r="M1608" s="229" t="s">
+      <c r="O1608" s="229" t="s">
         <v>5197</v>
       </c>
-      <c r="N1608" s="229"/>
-      <c r="O1608" s="229"/>
       <c r="P1608" s="229"/>
       <c r="Q1608" s="229"/>
-    </row>
-    <row r="1609" spans="1:20" s="46" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="R1608" s="229"/>
+      <c r="S1608" s="229"/>
+    </row>
+    <row r="1609" spans="1:22" s="46" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1609" s="44" t="s">
         <v>5209</v>
       </c>
     </row>
-    <row r="1610" spans="1:20" s="52" customFormat="1" ht="16.5" outlineLevel="1">
+    <row r="1610" spans="1:22" s="52" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1610" s="50" t="s">
         <v>5208</v>
       </c>
@@ -73703,12 +73753,12 @@
         <v>5198</v>
       </c>
     </row>
-    <row r="1611" spans="1:20" s="46" customFormat="1" ht="16.5" outlineLevel="1">
+    <row r="1611" spans="1:22" s="46" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1611" s="44" t="s">
         <v>5217</v>
       </c>
     </row>
-    <row r="1612" spans="1:20" s="49" customFormat="1" ht="16.5" outlineLevel="1">
+    <row r="1612" spans="1:22" s="49" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1612" s="47" t="s">
         <v>5171</v>
       </c>
@@ -73719,7 +73769,7 @@
         <v>3</v>
       </c>
       <c r="D1612" s="49" t="s">
-        <v>5227</v>
+        <v>5226</v>
       </c>
       <c r="E1612" s="49" t="s">
         <v>453</v>
@@ -73731,16 +73781,19 @@
         <v>501</v>
       </c>
       <c r="H1612" s="49" t="s">
-        <v>5226</v>
+        <v>5225</v>
       </c>
       <c r="I1612" s="49" t="s">
-        <v>5218</v>
+        <v>5236</v>
       </c>
       <c r="J1612" s="49" t="s">
-        <v>5220</v>
-      </c>
-    </row>
-    <row r="1613" spans="1:20" s="49" customFormat="1" ht="16.5" outlineLevel="1">
+        <v>5234</v>
+      </c>
+      <c r="K1612" s="49" t="s">
+        <v>5219</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:22" s="49" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1613" s="47"/>
       <c r="B1613" s="48" t="s">
         <v>24</v>
@@ -73749,7 +73802,7 @@
         <v>82</v>
       </c>
       <c r="D1613" s="49" t="s">
-        <v>5224</v>
+        <v>5223</v>
       </c>
       <c r="E1613" s="49" t="s">
         <v>82</v>
@@ -73761,16 +73814,19 @@
         <v>82</v>
       </c>
       <c r="H1613" s="49" t="s">
-        <v>5224</v>
+        <v>5223</v>
       </c>
       <c r="I1613" s="49" t="s">
         <v>449</v>
       </c>
       <c r="J1613" s="49" t="s">
-        <v>5223</v>
-      </c>
-    </row>
-    <row r="1614" spans="1:20" s="52" customFormat="1" ht="16.5" outlineLevel="1">
+        <v>5229</v>
+      </c>
+      <c r="K1613" s="49" t="s">
+        <v>5222</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:22" s="52" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1614" s="50"/>
       <c r="B1614" s="51" t="s">
         <v>25</v>
@@ -73779,10 +73835,10 @@
         <v>79</v>
       </c>
       <c r="D1614" s="52" t="s">
-        <v>5228</v>
+        <v>5227</v>
       </c>
       <c r="E1614" s="52" t="s">
-        <v>5221</v>
+        <v>5220</v>
       </c>
       <c r="F1614" s="52" t="s">
         <v>478</v>
@@ -73791,25 +73847,28 @@
         <v>479</v>
       </c>
       <c r="H1614" s="52" t="s">
-        <v>5225</v>
+        <v>5224</v>
       </c>
       <c r="I1614" s="52" t="s">
-        <v>5219</v>
-      </c>
-      <c r="J1614" s="229" t="s">
-        <v>5222</v>
-      </c>
-      <c r="K1614" s="229"/>
+        <v>5218</v>
+      </c>
+      <c r="J1614" s="52" t="s">
+        <v>5235</v>
+      </c>
+      <c r="K1614" s="229" t="s">
+        <v>5221</v>
+      </c>
       <c r="L1614" s="229"/>
       <c r="M1614" s="229"/>
       <c r="N1614" s="229"/>
-    </row>
-    <row r="1615" spans="1:20" s="46" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="O1614" s="229"/>
+    </row>
+    <row r="1615" spans="1:22" s="46" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1615" s="44" t="s">
         <v>5192</v>
       </c>
     </row>
-    <row r="1616" spans="1:20" s="49" customFormat="1" ht="16.5" outlineLevel="1">
+    <row r="1616" spans="1:22" s="49" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1616" s="47" t="s">
         <v>5172</v>
       </c>

--- a/zszq_SQL/嘉扬/嘉扬系统二次开发.xlsx
+++ b/zszq_SQL/嘉扬/嘉扬系统二次开发.xlsx
@@ -237,7 +237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16968" uniqueCount="5237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17035" uniqueCount="5246">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -20703,10 +20703,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>smalldatetim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>疫情日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -20739,22 +20735,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Submit2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Submit2By</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Submit2Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsClosed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>疫情统计员工新增</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -20868,6 +20848,62 @@
   </si>
   <si>
     <t>SubmitType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pEpidemicSuitation_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疫情统计历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否返回工作地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现所在地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计返回时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESTReturnDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsReturn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsLock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsLoc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否现场办公</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -32253,10 +32289,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:CM1618"/>
+  <dimension ref="A2:CM1622"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1571" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C1616" sqref="C1616"/>
+      <selection activeCell="D1618" sqref="D1618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -73574,16 +73610,16 @@
         <v>5174</v>
       </c>
       <c r="F1606" s="49" t="s">
-        <v>5210</v>
+        <v>5205</v>
       </c>
       <c r="G1606" s="49" t="s">
-        <v>5228</v>
+        <v>5223</v>
       </c>
       <c r="H1606" s="49" t="s">
-        <v>5231</v>
+        <v>5226</v>
       </c>
       <c r="I1606" s="49" t="s">
-        <v>5214</v>
+        <v>5209</v>
       </c>
       <c r="J1606" s="49" t="s">
         <v>5177</v>
@@ -73598,31 +73634,31 @@
         <v>5189</v>
       </c>
       <c r="N1606" s="49" t="s">
-        <v>5194</v>
+        <v>5193</v>
       </c>
       <c r="O1606" s="49" t="s">
-        <v>5193</v>
+        <v>5244</v>
       </c>
       <c r="P1606" s="49" t="s">
+        <v>5241</v>
+      </c>
+      <c r="Q1606" s="49" t="s">
+        <v>5240</v>
+      </c>
+      <c r="R1606" s="49" t="s">
+        <v>5239</v>
+      </c>
+      <c r="S1606" s="49" t="s">
+        <v>5242</v>
+      </c>
+      <c r="T1606" s="49" t="s">
+        <v>5198</v>
+      </c>
+      <c r="U1606" s="49" t="s">
         <v>5199</v>
       </c>
-      <c r="Q1606" s="49" t="s">
+      <c r="V1606" s="49" t="s">
         <v>5200</v>
-      </c>
-      <c r="R1606" s="49" t="s">
-        <v>5201</v>
-      </c>
-      <c r="S1606" s="49" t="s">
-        <v>5204</v>
-      </c>
-      <c r="T1606" s="49" t="s">
-        <v>5205</v>
-      </c>
-      <c r="U1606" s="49" t="s">
-        <v>5206</v>
-      </c>
-      <c r="V1606" s="49" t="s">
-        <v>5207</v>
       </c>
     </row>
     <row r="1607" spans="1:22" s="49" customFormat="1" ht="16.5" outlineLevel="1">
@@ -73640,16 +73676,16 @@
         <v>82</v>
       </c>
       <c r="F1607" s="49" t="s">
-        <v>5213</v>
+        <v>5208</v>
       </c>
       <c r="G1607" s="49" t="s">
-        <v>5229</v>
+        <v>5224</v>
       </c>
       <c r="H1607" s="49" t="s">
-        <v>5232</v>
+        <v>5227</v>
       </c>
       <c r="I1607" s="49" t="s">
-        <v>5215</v>
+        <v>5210</v>
       </c>
       <c r="J1607" s="49" t="s">
         <v>82</v>
@@ -73664,28 +73700,31 @@
         <v>5190</v>
       </c>
       <c r="N1607" s="49" t="s">
-        <v>5195</v>
+        <v>5190</v>
       </c>
       <c r="O1607" s="49" t="s">
+        <v>5234</v>
+      </c>
+      <c r="P1607" s="49" t="s">
+        <v>5234</v>
+      </c>
+      <c r="Q1607" s="49" t="s">
+        <v>5238</v>
+      </c>
+      <c r="R1607" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1607" s="49" t="s">
+        <v>5234</v>
+      </c>
+      <c r="T1607" s="49" t="s">
+        <v>5201</v>
+      </c>
+      <c r="U1607" s="49" t="s">
         <v>5190</v>
       </c>
-      <c r="P1607" s="49" t="s">
+      <c r="V1607" s="49" t="s">
         <v>5202</v>
-      </c>
-      <c r="Q1607" s="49" t="s">
-        <v>5190</v>
-      </c>
-      <c r="R1607" s="49" t="s">
-        <v>5203</v>
-      </c>
-      <c r="S1607" s="49" t="s">
-        <v>5202</v>
-      </c>
-      <c r="T1607" s="49" t="s">
-        <v>5190</v>
-      </c>
-      <c r="U1607" s="49" t="s">
-        <v>5203</v>
       </c>
     </row>
     <row r="1608" spans="1:22" s="52" customFormat="1" ht="16.5" outlineLevel="1">
@@ -73703,16 +73742,16 @@
         <v>5176</v>
       </c>
       <c r="F1608" s="52" t="s">
+        <v>5206</v>
+      </c>
+      <c r="G1608" s="52" t="s">
+        <v>5225</v>
+      </c>
+      <c r="H1608" s="52" t="s">
+        <v>5228</v>
+      </c>
+      <c r="I1608" s="52" t="s">
         <v>5211</v>
-      </c>
-      <c r="G1608" s="52" t="s">
-        <v>5230</v>
-      </c>
-      <c r="H1608" s="52" t="s">
-        <v>5233</v>
-      </c>
-      <c r="I1608" s="52" t="s">
-        <v>5216</v>
       </c>
       <c r="J1608" s="52" t="s">
         <v>5178</v>
@@ -73726,36 +73765,47 @@
       <c r="M1608" s="52" t="s">
         <v>5191</v>
       </c>
-      <c r="N1608" s="52" t="s">
+      <c r="N1608" s="229" t="s">
         <v>5196</v>
       </c>
       <c r="O1608" s="229" t="s">
-        <v>5197</v>
-      </c>
-      <c r="P1608" s="229"/>
-      <c r="Q1608" s="229"/>
-      <c r="R1608" s="229"/>
-      <c r="S1608" s="229"/>
+        <v>5245</v>
+      </c>
+      <c r="P1608" s="229" t="s">
+        <v>5235</v>
+      </c>
+      <c r="Q1608" s="229" t="s">
+        <v>5236</v>
+      </c>
+      <c r="R1608" s="229" t="s">
+        <v>5237</v>
+      </c>
+      <c r="S1608" s="229" t="s">
+        <v>5243</v>
+      </c>
+      <c r="T1608" s="229"/>
+      <c r="U1608" s="229"/>
+      <c r="V1608" s="229"/>
     </row>
     <row r="1609" spans="1:22" s="46" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1609" s="44" t="s">
-        <v>5209</v>
+        <v>5204</v>
       </c>
     </row>
     <row r="1610" spans="1:22" s="52" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1610" s="50" t="s">
-        <v>5208</v>
+        <v>5203</v>
       </c>
       <c r="B1610" s="51" t="s">
         <v>112</v>
       </c>
       <c r="C1610" s="52" t="s">
-        <v>5198</v>
+        <v>5197</v>
       </c>
     </row>
     <row r="1611" spans="1:22" s="46" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1611" s="44" t="s">
-        <v>5217</v>
+        <v>5212</v>
       </c>
     </row>
     <row r="1612" spans="1:22" s="49" customFormat="1" ht="16.5" outlineLevel="1">
@@ -73769,7 +73819,7 @@
         <v>3</v>
       </c>
       <c r="D1612" s="49" t="s">
-        <v>5226</v>
+        <v>5221</v>
       </c>
       <c r="E1612" s="49" t="s">
         <v>453</v>
@@ -73781,16 +73831,16 @@
         <v>501</v>
       </c>
       <c r="H1612" s="49" t="s">
-        <v>5225</v>
+        <v>5220</v>
       </c>
       <c r="I1612" s="49" t="s">
-        <v>5236</v>
+        <v>5231</v>
       </c>
       <c r="J1612" s="49" t="s">
-        <v>5234</v>
+        <v>5229</v>
       </c>
       <c r="K1612" s="49" t="s">
-        <v>5219</v>
+        <v>5214</v>
       </c>
     </row>
     <row r="1613" spans="1:22" s="49" customFormat="1" ht="16.5" outlineLevel="1">
@@ -73802,7 +73852,7 @@
         <v>82</v>
       </c>
       <c r="D1613" s="49" t="s">
-        <v>5223</v>
+        <v>5218</v>
       </c>
       <c r="E1613" s="49" t="s">
         <v>82</v>
@@ -73814,16 +73864,16 @@
         <v>82</v>
       </c>
       <c r="H1613" s="49" t="s">
-        <v>5223</v>
+        <v>5218</v>
       </c>
       <c r="I1613" s="49" t="s">
         <v>449</v>
       </c>
       <c r="J1613" s="49" t="s">
-        <v>5229</v>
+        <v>5224</v>
       </c>
       <c r="K1613" s="49" t="s">
-        <v>5222</v>
+        <v>5217</v>
       </c>
     </row>
     <row r="1614" spans="1:22" s="52" customFormat="1" ht="16.5" outlineLevel="1">
@@ -73835,10 +73885,10 @@
         <v>79</v>
       </c>
       <c r="D1614" s="52" t="s">
-        <v>5227</v>
+        <v>5222</v>
       </c>
       <c r="E1614" s="52" t="s">
-        <v>5220</v>
+        <v>5215</v>
       </c>
       <c r="F1614" s="52" t="s">
         <v>478</v>
@@ -73847,16 +73897,16 @@
         <v>479</v>
       </c>
       <c r="H1614" s="52" t="s">
-        <v>5224</v>
+        <v>5219</v>
       </c>
       <c r="I1614" s="52" t="s">
-        <v>5218</v>
+        <v>5213</v>
       </c>
       <c r="J1614" s="52" t="s">
-        <v>5235</v>
+        <v>5230</v>
       </c>
       <c r="K1614" s="229" t="s">
-        <v>5221</v>
+        <v>5216</v>
       </c>
       <c r="L1614" s="229"/>
       <c r="M1614" s="229"/>
@@ -73882,7 +73932,7 @@
         <v>5174</v>
       </c>
       <c r="E1616" s="49" t="s">
-        <v>5210</v>
+        <v>5205</v>
       </c>
       <c r="F1616" s="49" t="s">
         <v>5177</v>
@@ -73909,7 +73959,7 @@
         <v>5184</v>
       </c>
     </row>
-    <row r="1617" spans="1:13" s="49" customFormat="1" ht="16.5" outlineLevel="1">
+    <row r="1617" spans="1:22" s="49" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1617" s="47"/>
       <c r="B1617" s="48" t="s">
         <v>24</v>
@@ -73921,7 +73971,7 @@
         <v>82</v>
       </c>
       <c r="E1617" s="49" t="s">
-        <v>5213</v>
+        <v>5208</v>
       </c>
       <c r="F1617" s="49" t="s">
         <v>82</v>
@@ -73948,7 +73998,7 @@
         <v>5186</v>
       </c>
     </row>
-    <row r="1618" spans="1:13" s="52" customFormat="1" ht="16.5" outlineLevel="1">
+    <row r="1618" spans="1:22" s="52" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A1618" s="50"/>
       <c r="B1618" s="51" t="s">
         <v>25</v>
@@ -73960,7 +74010,7 @@
         <v>5176</v>
       </c>
       <c r="E1618" s="52" t="s">
-        <v>5211</v>
+        <v>5206</v>
       </c>
       <c r="F1618" s="52" t="s">
         <v>5178</v>
@@ -73969,23 +74019,222 @@
         <v>5191</v>
       </c>
       <c r="H1618" s="229" t="s">
-        <v>5197</v>
+        <v>5196</v>
       </c>
       <c r="I1618" s="229" t="s">
-        <v>5197</v>
+        <v>5196</v>
       </c>
       <c r="J1618" s="229" t="s">
-        <v>5197</v>
+        <v>5196</v>
       </c>
       <c r="K1618" s="229" t="s">
-        <v>5197</v>
+        <v>5196</v>
       </c>
       <c r="L1618" s="229" t="s">
-        <v>5197</v>
+        <v>5196</v>
       </c>
       <c r="M1618" s="52" t="s">
         <v>5187</v>
       </c>
+    </row>
+    <row r="1619" spans="1:22" s="46" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A1619" s="44" t="s">
+        <v>5232</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:22" s="49" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A1620" s="47" t="s">
+        <v>5233</v>
+      </c>
+      <c r="B1620" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1620" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1620" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1620" s="49" t="s">
+        <v>4857</v>
+      </c>
+      <c r="F1620" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1620" s="49" t="s">
+        <v>4572</v>
+      </c>
+      <c r="H1620" s="49" t="s">
+        <v>5226</v>
+      </c>
+      <c r="I1620" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1620" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1620" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="L1620" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="M1620" s="49" t="s">
+        <v>4650</v>
+      </c>
+      <c r="N1620" s="49" t="s">
+        <v>5194</v>
+      </c>
+      <c r="O1620" s="49" t="s">
+        <v>5193</v>
+      </c>
+      <c r="P1620" s="49" t="s">
+        <v>5244</v>
+      </c>
+      <c r="Q1620" s="49" t="s">
+        <v>5241</v>
+      </c>
+      <c r="R1620" s="49" t="s">
+        <v>5240</v>
+      </c>
+      <c r="S1620" s="49" t="s">
+        <v>5239</v>
+      </c>
+      <c r="T1620" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1620" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1620" s="49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:22" s="49" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A1621" s="47"/>
+      <c r="B1621" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1621" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1621" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1621" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1621" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1621" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1621" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1621" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1621" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1621" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1621" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1621" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1621" s="49" t="s">
+        <v>5072</v>
+      </c>
+      <c r="O1621" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1621" s="49" t="s">
+        <v>5234</v>
+      </c>
+      <c r="Q1621" s="49" t="s">
+        <v>5234</v>
+      </c>
+      <c r="R1621" s="49" t="s">
+        <v>5238</v>
+      </c>
+      <c r="S1621" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="T1621" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="U1621" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="V1621" s="49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:22" s="52" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A1622" s="50"/>
+      <c r="B1622" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1622" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1622" s="52" t="s">
+        <v>4861</v>
+      </c>
+      <c r="E1622" s="52" t="s">
+        <v>4860</v>
+      </c>
+      <c r="F1622" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1622" s="52" t="s">
+        <v>5225</v>
+      </c>
+      <c r="H1622" s="52" t="s">
+        <v>5228</v>
+      </c>
+      <c r="I1622" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1622" s="52" t="s">
+        <v>842</v>
+      </c>
+      <c r="K1622" s="52" t="s">
+        <v>478</v>
+      </c>
+      <c r="L1622" s="52" t="s">
+        <v>479</v>
+      </c>
+      <c r="M1622" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1622" s="52" t="s">
+        <v>5195</v>
+      </c>
+      <c r="O1622" s="229" t="s">
+        <v>5196</v>
+      </c>
+      <c r="P1622" s="229" t="s">
+        <v>5245</v>
+      </c>
+      <c r="Q1622" s="229" t="s">
+        <v>5235</v>
+      </c>
+      <c r="R1622" s="229" t="s">
+        <v>5236</v>
+      </c>
+      <c r="S1622" s="229" t="s">
+        <v>5237</v>
+      </c>
+      <c r="T1622" s="229"/>
+      <c r="U1622" s="229"/>
+      <c r="V1622" s="229"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -75426,7 +75675,7 @@
         <v>305</v>
       </c>
       <c r="E67" s="113" t="s">
-        <v>5212</v>
+        <v>5207</v>
       </c>
       <c r="F67" s="113" t="s">
         <v>2263</v>

--- a/zszq_SQL/嘉扬/嘉扬系统二次开发.xlsx
+++ b/zszq_SQL/嘉扬/嘉扬系统二次开发.xlsx
@@ -237,7 +237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17035" uniqueCount="5246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17084" uniqueCount="5259">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -20904,6 +20904,58 @@
   </si>
   <si>
     <t>是否现场办公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pEMPSalaryCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkAllowance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作补贴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsSubmit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否递交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubmitTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smalldatetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工资薪酬查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工工资信息检查表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工工资信息检查提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eSP_pEMPSalaryCheckSubmit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -21937,8 +21989,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BI123"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView topLeftCell="A75" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -32289,10 +32341,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:CM1622"/>
+  <dimension ref="A2:CM1630"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1571" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D1618" sqref="D1618"/>
+    <sheetView tabSelected="1" topLeftCell="A1611" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C1649" sqref="C1649"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -39952,13 +40004,13 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="299" spans="1:14" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="299" spans="1:14" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A299" s="9" t="s">
         <v>3599</v>
       </c>
       <c r="B299" s="5"/>
     </row>
-    <row r="300" spans="1:14" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="300" spans="1:14" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A300" s="10" t="s">
         <v>689</v>
       </c>
@@ -39990,7 +40042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:14" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="301" spans="1:14" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A301" s="10"/>
       <c r="B301" s="3" t="s">
         <v>24</v>
@@ -40020,7 +40072,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="302" spans="1:14" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="302" spans="1:14" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A302" s="10"/>
       <c r="B302" s="8" t="s">
         <v>25</v>
@@ -40050,13 +40102,13 @@
         <v>156</v>
       </c>
     </row>
-    <row r="303" spans="1:14" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="303" spans="1:14" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A303" s="9" t="s">
         <v>971</v>
       </c>
       <c r="B303" s="5"/>
     </row>
-    <row r="304" spans="1:14" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="304" spans="1:14" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A304" s="10" t="s">
         <v>696</v>
       </c>
@@ -40100,7 +40152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:14" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="305" spans="1:14" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A305" s="10"/>
       <c r="B305" s="3" t="s">
         <v>24</v>
@@ -40142,7 +40194,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="306" spans="1:14" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="306" spans="1:14" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A306" s="10"/>
       <c r="B306" s="3" t="s">
         <v>25</v>
@@ -40184,13 +40236,13 @@
         <v>156</v>
       </c>
     </row>
-    <row r="307" spans="1:14" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="307" spans="1:14" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A307" s="9" t="s">
         <v>911</v>
       </c>
       <c r="B307" s="5"/>
     </row>
-    <row r="308" spans="1:14" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="308" spans="1:14" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A308" s="10" t="s">
         <v>912</v>
       </c>
@@ -40219,7 +40271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="1:14" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="309" spans="1:14" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A309" s="10"/>
       <c r="B309" s="3" t="s">
         <v>24</v>
@@ -40246,7 +40298,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="310" spans="1:14" s="7" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="310" spans="1:14" s="7" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A310" s="11"/>
       <c r="B310" s="3" t="s">
         <v>25</v>
@@ -40273,13 +40325,13 @@
         <v>156</v>
       </c>
     </row>
-    <row r="311" spans="1:14" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="311" spans="1:14" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A311" s="9" t="s">
         <v>710</v>
       </c>
       <c r="B311" s="5"/>
     </row>
-    <row r="312" spans="1:14" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="312" spans="1:14" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A312" s="10" t="s">
         <v>706</v>
       </c>
@@ -40311,7 +40363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="313" spans="1:14" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="313" spans="1:14" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A313" s="10"/>
       <c r="B313" s="3" t="s">
         <v>24</v>
@@ -40341,7 +40393,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="314" spans="1:14" s="7" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="314" spans="1:14" s="7" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A314" s="11"/>
       <c r="B314" s="8" t="s">
         <v>25</v>
@@ -40371,13 +40423,13 @@
         <v>156</v>
       </c>
     </row>
-    <row r="315" spans="1:14" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="315" spans="1:14" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A315" s="9" t="s">
         <v>1211</v>
       </c>
       <c r="B315" s="5"/>
     </row>
-    <row r="316" spans="1:14" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="316" spans="1:14" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A316" s="10" t="s">
         <v>940</v>
       </c>
@@ -40406,7 +40458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="1:14" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="317" spans="1:14" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A317" s="10"/>
       <c r="B317" s="3" t="s">
         <v>24</v>
@@ -40433,7 +40485,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="318" spans="1:14" s="7" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="318" spans="1:14" s="7" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A318" s="11"/>
       <c r="B318" s="8" t="s">
         <v>25</v>
@@ -40460,13 +40512,13 @@
         <v>156</v>
       </c>
     </row>
-    <row r="319" spans="1:14" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="319" spans="1:14" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A319" s="9" t="s">
         <v>3605</v>
       </c>
       <c r="B319" s="5"/>
     </row>
-    <row r="320" spans="1:14" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="320" spans="1:14" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A320" s="10" t="s">
         <v>3606</v>
       </c>
@@ -40501,7 +40553,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="321" spans="1:15" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="321" spans="1:15" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A321" s="10"/>
       <c r="B321" s="3" t="s">
         <v>24</v>
@@ -40534,7 +40586,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="322" spans="1:15" s="179" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="322" spans="1:15" s="179" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A322" s="11"/>
       <c r="B322" s="8" t="s">
         <v>25</v>
@@ -40567,13 +40619,13 @@
         <v>156</v>
       </c>
     </row>
-    <row r="323" spans="1:15" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="323" spans="1:15" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A323" s="12" t="s">
         <v>841</v>
       </c>
       <c r="B323" s="3"/>
     </row>
-    <row r="324" spans="1:15" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="324" spans="1:15" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A324" s="10" t="s">
         <v>842</v>
       </c>
@@ -40617,7 +40669,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="325" spans="1:15" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="325" spans="1:15" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A325" s="10"/>
       <c r="B325" s="3" t="s">
         <v>24</v>
@@ -40659,7 +40711,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="326" spans="1:15" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="326" spans="1:15" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A326" s="11"/>
       <c r="B326" s="8" t="s">
         <v>25</v>
@@ -40701,12 +40753,12 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="327" spans="1:15" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="327" spans="1:15" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A327" s="9" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="328" spans="1:15" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="328" spans="1:15" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A328" s="10" t="s">
         <v>760</v>
       </c>
@@ -40717,13 +40769,13 @@
         <v>3113</v>
       </c>
     </row>
-    <row r="329" spans="1:15" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="329" spans="1:15" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A329" s="43" t="s">
         <v>869</v>
       </c>
       <c r="B329" s="5"/>
     </row>
-    <row r="330" spans="1:15" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="330" spans="1:15" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A330" s="15" t="s">
         <v>867</v>
       </c>
@@ -40746,7 +40798,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="331" spans="1:15" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="331" spans="1:15" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A331" s="15"/>
       <c r="B331" s="3" t="s">
         <v>24</v>
@@ -40767,7 +40819,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="332" spans="1:15" s="7" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="332" spans="1:15" s="7" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A332" s="42"/>
       <c r="B332" s="8" t="s">
         <v>25</v>
@@ -40788,12 +40840,12 @@
         <v>881</v>
       </c>
     </row>
-    <row r="333" spans="1:15" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="333" spans="1:15" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A333" s="9" t="s">
         <v>2182</v>
       </c>
     </row>
-    <row r="334" spans="1:15" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="334" spans="1:15" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A334" s="10" t="s">
         <v>711</v>
       </c>
@@ -40840,7 +40892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="335" spans="1:15" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="335" spans="1:15" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A335" s="10"/>
       <c r="B335" s="3" t="s">
         <v>24</v>
@@ -40885,7 +40937,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="336" spans="1:15" s="7" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="336" spans="1:15" s="7" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A336" s="11"/>
       <c r="B336" s="8" t="s">
         <v>25</v>
@@ -40930,12 +40982,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="337" spans="1:12" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="337" spans="1:12" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A337" s="9" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="338" spans="1:12" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="338" spans="1:12" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A338" s="10" t="s">
         <v>721</v>
       </c>
@@ -40946,12 +40998,12 @@
         <v>727</v>
       </c>
     </row>
-    <row r="339" spans="1:12" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="339" spans="1:12" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A339" s="9" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="340" spans="1:12" s="7" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="340" spans="1:12" s="7" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A340" s="11" t="s">
         <v>752</v>
       </c>
@@ -40962,13 +41014,13 @@
         <v>727</v>
       </c>
     </row>
-    <row r="341" spans="1:12" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="341" spans="1:12" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A341" s="12" t="s">
         <v>3117</v>
       </c>
       <c r="B341" s="3"/>
     </row>
-    <row r="342" spans="1:12" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="342" spans="1:12" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A342" s="10" t="s">
         <v>870</v>
       </c>
@@ -41006,7 +41058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="343" spans="1:12" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="343" spans="1:12" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A343" s="10"/>
       <c r="B343" s="3" t="s">
         <v>24</v>
@@ -41042,7 +41094,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="344" spans="1:12" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="344" spans="1:12" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A344" s="10"/>
       <c r="B344" s="8" t="s">
         <v>25</v>
@@ -41078,12 +41130,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="345" spans="1:12" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="345" spans="1:12" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A345" s="9" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="346" spans="1:12" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="346" spans="1:12" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A346" s="10" t="s">
         <v>888</v>
       </c>
@@ -41094,12 +41146,12 @@
         <v>997</v>
       </c>
     </row>
-    <row r="347" spans="1:12" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="347" spans="1:12" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A347" s="9" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="348" spans="1:12" s="7" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="348" spans="1:12" s="7" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A348" s="11" t="s">
         <v>889</v>
       </c>
@@ -41110,13 +41162,13 @@
         <v>997</v>
       </c>
     </row>
-    <row r="349" spans="1:12" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="349" spans="1:12" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A349" s="9" t="s">
         <v>996</v>
       </c>
       <c r="B349" s="5"/>
     </row>
-    <row r="350" spans="1:12" s="7" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="350" spans="1:12" s="7" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A350" s="11" t="s">
         <v>916</v>
       </c>
@@ -41127,13 +41179,13 @@
         <v>997</v>
       </c>
     </row>
-    <row r="351" spans="1:12" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="351" spans="1:12" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A351" s="9" t="s">
         <v>3594</v>
       </c>
       <c r="B351" s="5"/>
     </row>
-    <row r="352" spans="1:12" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="352" spans="1:12" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A352" s="10" t="s">
         <v>1221</v>
       </c>
@@ -41168,7 +41220,7 @@
         <v>3689</v>
       </c>
     </row>
-    <row r="353" spans="1:11" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="353" spans="1:11" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A353" s="10"/>
       <c r="B353" s="3" t="s">
         <v>24</v>
@@ -41201,7 +41253,7 @@
         <v>3690</v>
       </c>
     </row>
-    <row r="354" spans="1:11" s="7" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="354" spans="1:11" s="7" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A354" s="11"/>
       <c r="B354" s="8" t="s">
         <v>25</v>
@@ -41234,13 +41286,13 @@
         <v>3691</v>
       </c>
     </row>
-    <row r="355" spans="1:11" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="355" spans="1:11" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A355" s="12" t="s">
         <v>3598</v>
       </c>
       <c r="B355" s="3"/>
     </row>
-    <row r="356" spans="1:11" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="356" spans="1:11" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A356" s="10" t="s">
         <v>1219</v>
       </c>
@@ -41275,7 +41327,7 @@
         <v>3689</v>
       </c>
     </row>
-    <row r="357" spans="1:11" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="357" spans="1:11" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A357" s="10"/>
       <c r="B357" s="3" t="s">
         <v>24</v>
@@ -41308,7 +41360,7 @@
         <v>3690</v>
       </c>
     </row>
-    <row r="358" spans="1:11" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="358" spans="1:11" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A358" s="11"/>
       <c r="B358" s="8" t="s">
         <v>25</v>
@@ -41341,12 +41393,12 @@
         <v>3691</v>
       </c>
     </row>
-    <row r="359" spans="1:11" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="359" spans="1:11" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A359" s="9" t="s">
         <v>2389</v>
       </c>
     </row>
-    <row r="360" spans="1:11" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="360" spans="1:11" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A360" s="10" t="s">
         <v>3625</v>
       </c>
@@ -41375,7 +41427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="361" spans="1:11" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="361" spans="1:11" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A361" s="10"/>
       <c r="B361" s="3" t="s">
         <v>24</v>
@@ -41402,7 +41454,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="362" spans="1:11" s="7" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="362" spans="1:11" s="7" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A362" s="11"/>
       <c r="B362" s="8" t="s">
         <v>25</v>
@@ -41429,12 +41481,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="363" spans="1:11" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="363" spans="1:11" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A363" s="9" t="s">
         <v>2390</v>
       </c>
     </row>
-    <row r="364" spans="1:11" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="364" spans="1:11" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A364" s="10" t="s">
         <v>3624</v>
       </c>
@@ -41463,7 +41515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="365" spans="1:11" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="365" spans="1:11" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A365" s="10"/>
       <c r="B365" s="3" t="s">
         <v>24</v>
@@ -41490,7 +41542,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="366" spans="1:11" s="7" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="366" spans="1:11" s="7" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A366" s="11"/>
       <c r="B366" s="8" t="s">
         <v>25</v>
@@ -41517,12 +41569,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="367" spans="1:11" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="367" spans="1:11" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A367" s="9" t="s">
         <v>3616</v>
       </c>
     </row>
-    <row r="368" spans="1:11" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="368" spans="1:11" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A368" s="10" t="s">
         <v>3622</v>
       </c>
@@ -41551,7 +41603,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="369" spans="1:28" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="369" spans="1:28" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A369" s="10"/>
       <c r="B369" s="3" t="s">
         <v>24</v>
@@ -41578,7 +41630,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="370" spans="1:28" s="7" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="370" spans="1:28" s="7" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A370" s="11"/>
       <c r="B370" s="8" t="s">
         <v>25</v>
@@ -41605,12 +41657,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="371" spans="1:28" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="371" spans="1:28" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A371" s="9" t="s">
         <v>3621</v>
       </c>
     </row>
-    <row r="372" spans="1:28" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="372" spans="1:28" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A372" s="10" t="s">
         <v>3623</v>
       </c>
@@ -41639,7 +41691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="373" spans="1:28" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="373" spans="1:28" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A373" s="10"/>
       <c r="B373" s="3" t="s">
         <v>24</v>
@@ -41666,7 +41718,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="374" spans="1:28" s="179" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="374" spans="1:28" s="179" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A374" s="11"/>
       <c r="B374" s="8" t="s">
         <v>25</v>
@@ -41693,12 +41745,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="375" spans="1:28" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="375" spans="1:28" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A375" s="9" t="s">
         <v>3656</v>
       </c>
     </row>
-    <row r="376" spans="1:28" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="376" spans="1:28" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A376" s="10" t="s">
         <v>3674</v>
       </c>
@@ -41739,7 +41791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="1:28" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="377" spans="1:28" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A377" s="10"/>
       <c r="B377" s="3" t="s">
         <v>24</v>
@@ -41778,7 +41830,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="378" spans="1:28" s="184" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="378" spans="1:28" s="184" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A378" s="11"/>
       <c r="B378" s="8" t="s">
         <v>25</v>
@@ -41817,12 +41869,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="379" spans="1:28" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="379" spans="1:28" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A379" s="9" t="s">
         <v>3667</v>
       </c>
     </row>
-    <row r="380" spans="1:28" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="380" spans="1:28" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A380" s="10" t="s">
         <v>3668</v>
       </c>
@@ -41863,7 +41915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="381" spans="1:28" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="381" spans="1:28" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A381" s="10"/>
       <c r="B381" s="3" t="s">
         <v>24</v>
@@ -41902,7 +41954,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="382" spans="1:28" s="184" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="382" spans="1:28" s="184" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A382" s="11"/>
       <c r="B382" s="8" t="s">
         <v>25</v>
@@ -41941,12 +41993,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="383" spans="1:28" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="383" spans="1:28" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A383" s="9" t="s">
         <v>3564</v>
       </c>
     </row>
-    <row r="384" spans="1:28" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="384" spans="1:28" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A384" s="10" t="s">
         <v>3559</v>
       </c>
@@ -42032,7 +42084,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="385" spans="1:91" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="385" spans="1:91" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A385" s="10"/>
       <c r="B385" s="3" t="s">
         <v>24</v>
@@ -42116,7 +42168,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="386" spans="1:91" s="178" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="386" spans="1:91" s="178" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A386" s="11"/>
       <c r="B386" s="8" t="s">
         <v>25</v>
@@ -42200,12 +42252,12 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="387" spans="1:91" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="387" spans="1:91" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A387" s="9" t="s">
         <v>3683</v>
       </c>
     </row>
-    <row r="388" spans="1:91" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="388" spans="1:91" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A388" s="10" t="s">
         <v>3684</v>
       </c>
@@ -42291,7 +42343,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="389" spans="1:91" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="389" spans="1:91" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A389" s="10"/>
       <c r="B389" s="3" t="s">
         <v>24</v>
@@ -42375,7 +42427,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="390" spans="1:91" s="178" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="390" spans="1:91" s="178" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A390" s="11"/>
       <c r="B390" s="8" t="s">
         <v>25</v>
@@ -42459,12 +42511,12 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="391" spans="1:91" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="391" spans="1:91" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A391" s="9" t="s">
         <v>3593</v>
       </c>
     </row>
-    <row r="392" spans="1:91" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="392" spans="1:91" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A392" s="10" t="s">
         <v>3457</v>
       </c>
@@ -42556,7 +42608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="393" spans="1:91" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="393" spans="1:91" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A393" s="10"/>
       <c r="B393" s="3" t="s">
         <v>24</v>
@@ -42646,7 +42698,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="394" spans="1:91" s="178" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="394" spans="1:91" s="178" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A394" s="11"/>
       <c r="B394" s="8" t="s">
         <v>25</v>
@@ -42736,12 +42788,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="395" spans="1:91" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="395" spans="1:91" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A395" s="9" t="s">
         <v>3591</v>
       </c>
     </row>
-    <row r="396" spans="1:91" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="396" spans="1:91" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A396" s="10" t="s">
         <v>3571</v>
       </c>
@@ -43016,7 +43068,7 @@
         <v>3455</v>
       </c>
     </row>
-    <row r="397" spans="1:91" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="397" spans="1:91" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A397" s="10"/>
       <c r="B397" s="3" t="s">
         <v>24</v>
@@ -43289,7 +43341,7 @@
         <v>3470</v>
       </c>
     </row>
-    <row r="398" spans="1:91" s="178" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="398" spans="1:91" s="178" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A398" s="11"/>
       <c r="B398" s="8" t="s">
         <v>25</v>
@@ -43562,12 +43614,12 @@
         <v>3541</v>
       </c>
     </row>
-    <row r="399" spans="1:91" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="399" spans="1:91" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A399" s="9" t="s">
         <v>2393</v>
       </c>
     </row>
-    <row r="400" spans="1:91" s="7" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="400" spans="1:91" s="7" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A400" s="11" t="s">
         <v>833</v>
       </c>
@@ -43578,12 +43630,12 @@
         <v>831</v>
       </c>
     </row>
-    <row r="401" spans="1:60" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="401" spans="1:60" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A401" s="9" t="s">
         <v>2391</v>
       </c>
     </row>
-    <row r="402" spans="1:60" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="402" spans="1:60" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A402" s="10" t="s">
         <v>753</v>
       </c>
@@ -43765,7 +43817,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="403" spans="1:60" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="403" spans="1:60" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A403" s="10"/>
       <c r="B403" s="3" t="s">
         <v>24</v>
@@ -43945,7 +43997,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="404" spans="1:60" s="7" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="404" spans="1:60" s="7" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A404" s="11"/>
       <c r="B404" s="8" t="s">
         <v>25</v>
@@ -44125,12 +44177,12 @@
         <v>571</v>
       </c>
     </row>
-    <row r="405" spans="1:60" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="405" spans="1:60" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A405" s="9" t="s">
         <v>2392</v>
       </c>
     </row>
-    <row r="406" spans="1:60" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="406" spans="1:60" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A406" s="10" t="s">
         <v>754</v>
       </c>
@@ -44312,7 +44364,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="407" spans="1:60" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="407" spans="1:60" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A407" s="10"/>
       <c r="B407" s="3" t="s">
         <v>24</v>
@@ -44492,7 +44544,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="408" spans="1:60" s="7" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="408" spans="1:60" s="7" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A408" s="11"/>
       <c r="B408" s="8" t="s">
         <v>25</v>
@@ -44672,13 +44724,13 @@
         <v>571</v>
       </c>
     </row>
-    <row r="409" spans="1:60" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="409" spans="1:60" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A409" s="9" t="s">
         <v>2394</v>
       </c>
       <c r="B409" s="5"/>
     </row>
-    <row r="410" spans="1:60" s="7" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="410" spans="1:60" s="7" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A410" s="11" t="s">
         <v>829</v>
       </c>
@@ -44689,12 +44741,12 @@
         <v>832</v>
       </c>
     </row>
-    <row r="411" spans="1:60" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="411" spans="1:60" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A411" s="9" t="s">
         <v>2395</v>
       </c>
     </row>
-    <row r="412" spans="1:60" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="412" spans="1:60" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A412" s="10" t="s">
         <v>755</v>
       </c>
@@ -44768,7 +44820,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="413" spans="1:60" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="413" spans="1:60" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A413" s="10"/>
       <c r="B413" s="3" t="s">
         <v>24</v>
@@ -44840,7 +44892,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="414" spans="1:60" s="7" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="414" spans="1:60" s="7" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A414" s="11"/>
       <c r="B414" s="8" t="s">
         <v>25</v>
@@ -44912,13 +44964,13 @@
         <v>746</v>
       </c>
     </row>
-    <row r="415" spans="1:60" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="415" spans="1:60" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A415" s="9" t="s">
         <v>2396</v>
       </c>
       <c r="B415" s="5"/>
     </row>
-    <row r="416" spans="1:60" s="7" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="416" spans="1:60" s="7" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A416" s="11" t="s">
         <v>828</v>
       </c>
@@ -44929,12 +44981,12 @@
         <v>830</v>
       </c>
     </row>
-    <row r="417" spans="1:26" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="417" spans="1:26" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A417" s="9" t="s">
         <v>2397</v>
       </c>
     </row>
-    <row r="418" spans="1:26" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="418" spans="1:26" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A418" s="10" t="s">
         <v>768</v>
       </c>
@@ -45014,7 +45066,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="419" spans="1:26" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="419" spans="1:26" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A419" s="10"/>
       <c r="B419" s="3" t="s">
         <v>24</v>
@@ -45092,7 +45144,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="420" spans="1:26" s="7" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="420" spans="1:26" s="7" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A420" s="11"/>
       <c r="B420" s="8" t="s">
         <v>25</v>
@@ -45170,12 +45222,12 @@
         <v>571</v>
       </c>
     </row>
-    <row r="421" spans="1:26" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="421" spans="1:26" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A421" s="9" t="s">
         <v>2398</v>
       </c>
     </row>
-    <row r="422" spans="1:26" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="422" spans="1:26" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A422" s="10" t="s">
         <v>769</v>
       </c>
@@ -45195,7 +45247,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="423" spans="1:26" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="423" spans="1:26" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A423" s="10"/>
       <c r="B423" s="3" t="s">
         <v>24</v>
@@ -45213,7 +45265,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="424" spans="1:26" s="7" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="424" spans="1:26" s="7" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A424" s="11"/>
       <c r="B424" s="8" t="s">
         <v>25</v>
@@ -45231,12 +45283,12 @@
         <v>745</v>
       </c>
     </row>
-    <row r="425" spans="1:26" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="425" spans="1:26" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A425" s="9" t="s">
         <v>2399</v>
       </c>
     </row>
-    <row r="426" spans="1:26" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="426" spans="1:26" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A426" s="10" t="s">
         <v>1111</v>
       </c>
@@ -45292,7 +45344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="427" spans="1:26" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="427" spans="1:26" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A427" s="10"/>
       <c r="B427" s="3" t="s">
         <v>24</v>
@@ -45346,7 +45398,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="428" spans="1:26" s="7" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="428" spans="1:26" s="7" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A428" s="11"/>
       <c r="B428" s="8" t="s">
         <v>25</v>
@@ -45400,13 +45452,13 @@
         <v>156</v>
       </c>
     </row>
-    <row r="429" spans="1:26" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="429" spans="1:26" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A429" s="9" t="s">
         <v>885</v>
       </c>
       <c r="B429" s="5"/>
     </row>
-    <row r="430" spans="1:26" s="7" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="430" spans="1:26" s="7" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A430" s="11" t="s">
         <v>1026</v>
       </c>
@@ -45420,13 +45472,13 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="431" spans="1:26" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="431" spans="1:26" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A431" s="9" t="s">
         <v>1022</v>
       </c>
       <c r="B431" s="5"/>
     </row>
-    <row r="432" spans="1:26" s="7" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="432" spans="1:26" s="7" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A432" s="11" t="s">
         <v>1025</v>
       </c>
@@ -45440,13 +45492,13 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="433" spans="1:12" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="433" spans="1:12" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A433" s="9" t="s">
         <v>1030</v>
       </c>
       <c r="B433" s="5"/>
     </row>
-    <row r="434" spans="1:12" s="7" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="434" spans="1:12" s="7" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A434" s="11" t="s">
         <v>1033</v>
       </c>
@@ -45460,13 +45512,13 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="435" spans="1:12" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="435" spans="1:12" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A435" s="9" t="s">
         <v>1031</v>
       </c>
       <c r="B435" s="5"/>
     </row>
-    <row r="436" spans="1:12" s="7" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="436" spans="1:12" s="7" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A436" s="11" t="s">
         <v>1032</v>
       </c>
@@ -45480,13 +45532,13 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="437" spans="1:12" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="437" spans="1:12" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A437" s="9" t="s">
         <v>1023</v>
       </c>
       <c r="B437" s="5"/>
     </row>
-    <row r="438" spans="1:12" s="7" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="438" spans="1:12" s="7" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A438" s="11" t="s">
         <v>1021</v>
       </c>
@@ -45500,7 +45552,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="439" spans="1:12" s="4" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="439" spans="1:12" s="4" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A439" s="12" t="s">
         <v>1034</v>
       </c>
@@ -45508,7 +45560,7 @@
       <c r="C439" s="6"/>
       <c r="D439" s="6"/>
     </row>
-    <row r="440" spans="1:12" s="7" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="440" spans="1:12" s="7" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A440" s="10" t="s">
         <v>1024</v>
       </c>
@@ -45522,13 +45574,13 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="441" spans="1:12" s="6" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="441" spans="1:12" s="6" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A441" s="9" t="s">
         <v>886</v>
       </c>
       <c r="B441" s="5"/>
     </row>
-    <row r="442" spans="1:12" s="7" customFormat="1" ht="16.5" hidden="1" outlineLevel="1">
+    <row r="442" spans="1:12" s="7" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A442" s="11" t="s">
         <v>887</v>
       </c>
@@ -45539,7 +45591,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="443" spans="1:12" s="2" customFormat="1" ht="16.5" collapsed="1">
+    <row r="443" spans="1:12" s="2" customFormat="1" ht="16.5">
       <c r="B443" s="145"/>
     </row>
     <row r="444" spans="1:12" s="14" customFormat="1" ht="22.5">
@@ -74236,8 +74288,172 @@
       <c r="U1622" s="229"/>
       <c r="V1622" s="229"/>
     </row>
+    <row r="1624" spans="1:22" s="62" customFormat="1" ht="22.5">
+      <c r="A1624" s="61" t="s">
+        <v>5255</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:22" s="46" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A1625" s="44" t="s">
+        <v>5246</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:22" s="187" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A1626" s="47" t="s">
+        <v>5256</v>
+      </c>
+      <c r="B1626" s="203" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1626" s="187" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1626" s="187" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1626" s="187" t="s">
+        <v>4857</v>
+      </c>
+      <c r="F1626" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1626" s="187" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1626" s="187" t="s">
+        <v>341</v>
+      </c>
+      <c r="I1626" s="187" t="s">
+        <v>590</v>
+      </c>
+      <c r="J1626" s="187" t="s">
+        <v>683</v>
+      </c>
+      <c r="K1626" s="187" t="s">
+        <v>1200</v>
+      </c>
+      <c r="L1626" s="187" t="s">
+        <v>5247</v>
+      </c>
+      <c r="M1626" s="187" t="s">
+        <v>5249</v>
+      </c>
+      <c r="N1626" s="187" t="s">
+        <v>5252</v>
+      </c>
+      <c r="O1626" s="187" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:22" s="187" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A1627" s="1"/>
+      <c r="B1627" s="203" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1627" s="187" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1627" s="187" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1627" s="187" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1627" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1627" s="187" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1627" s="187" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1627" s="187" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1627" s="187" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1627" s="187" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1627" s="187" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1627" s="187" t="s">
+        <v>5250</v>
+      </c>
+      <c r="N1627" s="187" t="s">
+        <v>5253</v>
+      </c>
+      <c r="O1627" s="187" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:22" s="52" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A1628" s="230"/>
+      <c r="B1628" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1628" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1628" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1628" s="52" t="s">
+        <v>4860</v>
+      </c>
+      <c r="F1628" s="49" t="s">
+        <v>295</v>
+      </c>
+      <c r="G1628" s="52" t="s">
+        <v>884</v>
+      </c>
+      <c r="H1628" s="52" t="s">
+        <v>340</v>
+      </c>
+      <c r="I1628" s="52" t="s">
+        <v>588</v>
+      </c>
+      <c r="J1628" s="52" t="s">
+        <v>682</v>
+      </c>
+      <c r="K1628" s="52" t="s">
+        <v>1198</v>
+      </c>
+      <c r="L1628" s="52" t="s">
+        <v>5248</v>
+      </c>
+      <c r="M1628" s="52" t="s">
+        <v>5251</v>
+      </c>
+      <c r="N1628" s="52" t="s">
+        <v>5254</v>
+      </c>
+      <c r="O1628" s="52" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:22" s="46" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A1629" s="44" t="s">
+        <v>5258</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:22" s="52" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A1630" s="50" t="s">
+        <v>5257</v>
+      </c>
+      <c r="B1630" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1630" s="52" t="s">
+        <v>5197</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="A1627:A1628"/>
     <mergeCell ref="A1143:A1144"/>
     <mergeCell ref="A1153:A1154"/>
     <mergeCell ref="A1149:A1150"/>

--- a/zszq_SQL/嘉扬/嘉扬系统二次开发.xlsx
+++ b/zszq_SQL/嘉扬/嘉扬系统二次开发.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="540" windowWidth="23715" windowHeight="8820" tabRatio="511" activeTab="2"/>
+    <workbookView xWindow="630" yWindow="540" windowWidth="23715" windowHeight="8820" tabRatio="511"/>
   </bookViews>
   <sheets>
     <sheet name="通用" sheetId="17" r:id="rId1"/>
@@ -237,7 +237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17084" uniqueCount="5259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17084" uniqueCount="5260">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -20956,6 +20956,10 @@
   </si>
   <si>
     <t>eSP_pEMPSalaryCheckSubmit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SalaryPerMM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -21989,8 +21993,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BI123"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:A59"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -23702,7 +23706,7 @@
         <v>1210</v>
       </c>
       <c r="H57" s="49" t="s">
-        <v>89</v>
+        <v>5259</v>
       </c>
       <c r="I57" s="49" t="s">
         <v>341</v>
@@ -32343,7 +32347,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:CM1630"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1611" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A1611" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C1649" sqref="C1649"/>
     </sheetView>
   </sheetViews>
